--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp7</t>
+  </si>
+  <si>
+    <t>Acvr2b</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Bmp7</t>
-  </si>
-  <si>
-    <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H2">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I2">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.921801</v>
+        <v>1.555373</v>
       </c>
       <c r="N2">
-        <v>3.843602</v>
+        <v>3.110746</v>
       </c>
       <c r="O2">
-        <v>0.2963026861879742</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="P2">
-        <v>0.2443427896918877</v>
+        <v>0.3526211663203079</v>
       </c>
       <c r="Q2">
-        <v>0.3706683287754999</v>
+        <v>0.204990384535</v>
       </c>
       <c r="R2">
-        <v>1.482673315102</v>
+        <v>0.8199615381399999</v>
       </c>
       <c r="S2">
-        <v>0.1769303302051262</v>
+        <v>0.3885765569564089</v>
       </c>
       <c r="T2">
-        <v>0.1214410191259272</v>
+        <v>0.3526211663203079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H3">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I3">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.456959</v>
       </c>
       <c r="O3">
-        <v>0.02348459928608122</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="P3">
-        <v>0.02904947932559493</v>
+        <v>0.05179896254485632</v>
       </c>
       <c r="Q3">
-        <v>0.02937873186816666</v>
+        <v>0.02007497046833333</v>
       </c>
       <c r="R3">
-        <v>0.176272391209</v>
+        <v>0.12044982281</v>
       </c>
       <c r="S3">
-        <v>0.01402328800956399</v>
+        <v>0.0380537990759009</v>
       </c>
       <c r="T3">
-        <v>0.01443790659354547</v>
+        <v>0.05179896254485632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H4">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I4">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4109286666666667</v>
+        <v>0.289563</v>
       </c>
       <c r="N4">
-        <v>1.232786</v>
+        <v>0.868689</v>
       </c>
       <c r="O4">
-        <v>0.06335685524410488</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="P4">
-        <v>0.07836981309019599</v>
+        <v>0.09847095466798705</v>
       </c>
       <c r="Q4">
-        <v>0.07925807204766666</v>
+        <v>0.038162955585</v>
       </c>
       <c r="R4">
-        <v>0.4755484322859999</v>
+        <v>0.22897773351</v>
       </c>
       <c r="S4">
-        <v>0.03783208806951685</v>
+        <v>0.07234109989177429</v>
       </c>
       <c r="T4">
-        <v>0.03895064790896021</v>
+        <v>0.09847095466798705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H5">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I5">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8056465</v>
+        <v>1.631084</v>
       </c>
       <c r="N5">
-        <v>3.611293</v>
+        <v>3.262168</v>
       </c>
       <c r="O5">
-        <v>0.2783940211582334</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="P5">
-        <v>0.2295746037219218</v>
+        <v>0.3697857314267338</v>
       </c>
       <c r="Q5">
-        <v>0.3482649715107499</v>
+        <v>0.21496871578</v>
       </c>
       <c r="R5">
-        <v>1.393059886043</v>
+        <v>0.8598748631199999</v>
       </c>
       <c r="S5">
-        <v>0.1662365830170399</v>
+        <v>0.4074913251205256</v>
       </c>
       <c r="T5">
-        <v>0.1141010703715751</v>
+        <v>0.3697857314267338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H6">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I6">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.197361</v>
+        <v>0.04059466666666667</v>
       </c>
       <c r="N6">
-        <v>3.592083000000001</v>
+        <v>0.121784</v>
       </c>
       <c r="O6">
-        <v>0.1846087501446399</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="P6">
-        <v>0.2283533989796044</v>
+        <v>0.01380492528774525</v>
       </c>
       <c r="Q6">
-        <v>0.2309416015555</v>
+        <v>0.005350174093333333</v>
       </c>
       <c r="R6">
-        <v>1.385649609333</v>
+        <v>0.03210104456</v>
       </c>
       <c r="S6">
-        <v>0.1102348667238388</v>
+        <v>0.01014170607573002</v>
       </c>
       <c r="T6">
-        <v>0.1134941183569261</v>
+        <v>0.01380492528774525</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1928755</v>
+        <v>0.131795</v>
       </c>
       <c r="H7">
-        <v>0.385751</v>
+        <v>0.26359</v>
       </c>
       <c r="I7">
-        <v>0.5971269868707221</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.4970108562608389</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9978816666666667</v>
+        <v>0.333811</v>
       </c>
       <c r="N7">
-        <v>2.993645</v>
+        <v>1.001433</v>
       </c>
       <c r="O7">
-        <v>0.1538530879789666</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="P7">
-        <v>0.1903099151907953</v>
+        <v>0.1135182597523697</v>
       </c>
       <c r="Q7">
-        <v>0.1924669253991667</v>
+        <v>0.043994620745</v>
       </c>
       <c r="R7">
-        <v>1.154801552395</v>
+        <v>0.26396772447</v>
       </c>
       <c r="S7">
-        <v>0.09186983084563645</v>
+        <v>0.08339551287966027</v>
       </c>
       <c r="T7">
-        <v>0.09458609390390481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.390391</v>
-      </c>
-      <c r="I8">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J8">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.921801</v>
-      </c>
-      <c r="N8">
-        <v>3.843602</v>
-      </c>
-      <c r="O8">
-        <v>0.2963026861879742</v>
-      </c>
-      <c r="P8">
-        <v>0.2443427896918877</v>
-      </c>
-      <c r="Q8">
-        <v>0.2500846047303333</v>
-      </c>
-      <c r="R8">
-        <v>1.500507628382</v>
-      </c>
-      <c r="S8">
-        <v>0.119372355982848</v>
-      </c>
-      <c r="T8">
-        <v>0.1229017705659605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.390391</v>
-      </c>
-      <c r="I9">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J9">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.1523196666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.456959</v>
-      </c>
-      <c r="O9">
-        <v>0.02348459928608122</v>
-      </c>
-      <c r="P9">
-        <v>0.02904947932559493</v>
-      </c>
-      <c r="Q9">
-        <v>0.01982140899655555</v>
-      </c>
-      <c r="R9">
-        <v>0.178392680969</v>
-      </c>
-      <c r="S9">
-        <v>0.009461311276517228</v>
-      </c>
-      <c r="T9">
-        <v>0.01461157273204946</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.390391</v>
-      </c>
-      <c r="I10">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J10">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.4109286666666667</v>
-      </c>
-      <c r="N10">
-        <v>1.232786</v>
-      </c>
-      <c r="O10">
-        <v>0.06335685524410488</v>
-      </c>
-      <c r="P10">
-        <v>0.07836981309019599</v>
-      </c>
-      <c r="Q10">
-        <v>0.05347428436955555</v>
-      </c>
-      <c r="R10">
-        <v>0.4812685593259999</v>
-      </c>
-      <c r="S10">
-        <v>0.02552476717458802</v>
-      </c>
-      <c r="T10">
-        <v>0.03941916518123578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.390391</v>
-      </c>
-      <c r="I11">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J11">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.8056465</v>
-      </c>
-      <c r="N11">
-        <v>3.611293</v>
-      </c>
-      <c r="O11">
-        <v>0.2783940211582334</v>
-      </c>
-      <c r="P11">
-        <v>0.2295746037219218</v>
-      </c>
-      <c r="Q11">
-        <v>0.2349693809271666</v>
-      </c>
-      <c r="R11">
-        <v>1.409816285563</v>
-      </c>
-      <c r="S11">
-        <v>0.1121574381411934</v>
-      </c>
-      <c r="T11">
-        <v>0.1154735333503467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.390391</v>
-      </c>
-      <c r="I12">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J12">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.197361</v>
-      </c>
-      <c r="N12">
-        <v>3.592083000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.1846087501446399</v>
-      </c>
-      <c r="P12">
-        <v>0.2283533989796044</v>
-      </c>
-      <c r="Q12">
-        <v>0.1558129860503333</v>
-      </c>
-      <c r="R12">
-        <v>1.402316874453</v>
-      </c>
-      <c r="S12">
-        <v>0.07437388342080106</v>
-      </c>
-      <c r="T12">
-        <v>0.1148592806226782</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1301303333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.390391</v>
-      </c>
-      <c r="I13">
-        <v>0.4028730131292778</v>
-      </c>
-      <c r="J13">
-        <v>0.5029891437391611</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.9978816666666667</v>
-      </c>
-      <c r="N13">
-        <v>2.993645</v>
-      </c>
-      <c r="O13">
-        <v>0.1538530879789666</v>
-      </c>
-      <c r="P13">
-        <v>0.1903099151907953</v>
-      </c>
-      <c r="Q13">
-        <v>0.1298546739105556</v>
-      </c>
-      <c r="R13">
-        <v>1.168692065195</v>
-      </c>
-      <c r="S13">
-        <v>0.06198325713333016</v>
-      </c>
-      <c r="T13">
-        <v>0.0957238212868905</v>
+        <v>0.1135182597523697</v>
       </c>
     </row>
   </sheetData>
